--- a/FilmExel/247PhimLe.xlsx
+++ b/FilmExel/247PhimLe.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -26,33 +26,13 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -64,19 +44,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Accent4" xfId="1" builtinId="41"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -441,97 +416,80 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="21.140625" customWidth="1" min="1" max="1"/>
-    <col width="20.5703125" customWidth="1" min="2" max="2"/>
-    <col width="14.28515625" customWidth="1" min="3" max="3"/>
-    <col width="16.28515625" customWidth="1" min="4" max="4"/>
-    <col width="14.7109375" customWidth="1" min="5" max="5"/>
-    <col width="18.85546875" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="17.28515625" customWidth="1" min="8" max="10"/>
-    <col width="15.85546875" customWidth="1" min="11" max="11"/>
-    <col width="16" customWidth="1" min="12" max="12"/>
-  </cols>
   <sheetData>
-    <row r="1" ht="48.75" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1">
+      <c r="A1" t="inlineStr">
         <is>
           <t>filmname_vi</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>filmname_eng</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>IMDB</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>cast</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>category</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>country</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>director</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>duration</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>filmdescription</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>filmtype</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>publishYear</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>videoname</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Kẻ Cố Vấn Mafia - Tập Đặc Biệt</t>
+          <t>Phong Thần: Họa Thánh Trở Về</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vincenzo - Special (2021)</t>
+          <t>Cherish the World (2021)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -541,17 +499,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Cung Tiểu Quân, Hoàng Nhất Lâm, Lý Tiếu Ninh, Trương Xuân Trọng, Hà Trung Hoa, Viên Chí Dĩnh, Ân Diệp Tử,</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Kịch tính, hồi hộp, Hành động, Hình sự,</t>
+          <t>Hành động, Viễn tưởng, Kiếm hiệp, võ thuật, Phim mới, Cổ trang,</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hàn Quốc</t>
+          <t xml:space="preserve"> Trung Quốc</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -561,12 +519,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>60 phút</t>
+          <t>90 phút</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> là bộ phim thuộc thể loại hành động, tội phạm xen lẫn những yếu tố hài hước, lãng mãn. Phim do đạo diễn nổi tiếng Kim Hee Won sản xuất cùng sự góp mặt của dàn diễn viên tài năng như Song Joong Ki, Jeon Yeo Bin, Ok Taecyeon,...</t>
+          <t>Phim dùng ngân vật Ngô Đạo Tử chủ yếu, kể về thời kyù khai nguyên, Hoạ Thánh Ngô Đạo Tử được Đường Huyền Tông ra lệnh tu sửa tác phẩm thượng cổ "Thiên Lý Bất Chu Sơn", nhưng đã bất cẩn làm mất bức tranh này. Trong quá trình tìm tranh, một âm mưu được ấp ủ đã lâu âm thầm giáng xuống, Ngô Đạo Tử cũng phát hiện bí mật ẩn giấu trong "Bút Phong Thần"</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -577,23 +535,18 @@
       <c r="K2" t="inlineStr">
         <is>
           <t>2021</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>KeCoVanMafia-TapacBiet</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tân Cô Kỳ Đàm 1: Ám Thành Sát Cơ</t>
+          <t>Phong Thần: Họa Thánh Trở Về</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Deadly Puppet (2021)</t>
+          <t>Cherish the World (2021)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -603,12 +556,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Muchuan Ji, Sun Shenghao L, Xinrui Han, Zhang Ke Ke Zhang</t>
+          <t xml:space="preserve"> Cung Tiểu Quân, Hoàng Nhất Lâm, Lý Tiếu Ninh, Trương Xuân Trọng, Hà Trung Hoa, Viên Chí Dĩnh, Ân Diệp Tử,</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Kịch tính, hồi hộp, Hình sự, Viễn tưởng, Phim lẻ, Phim mới,</t>
+          <t>Hành động, Viễn tưởng, Kiếm hiệp, võ thuật, Phim mới, Cổ trang,</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -623,12 +576,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>97 phút</t>
+          <t>90 phút</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Bộ phim kể về một loạt các vụ giết người ở thành Tân Cô dưới thời Trung Hoa Dân Quốc, cảnh sát lúc đó bị thất thế. Đoạn Vũ Hào và Trâu Thích, những người dùng "phong thủy phá án" đã điều tra những vụ án bí ẩn này, vô tình lại khám phá thêm về vụ án "giết người liên hoàn la sát điểu" của nhiều năm trước. Các nhân vật chính đã cùng nhau tìm ra sự thật phía sau các vụ án đồng thời giải quyết câu chuyện về kẻ sát nhân thực sự.</t>
+          <t>Phim dùng ngân vật Ngô Đạo Tử chủ yếu, kể về thời kyù khai nguyên, Hoạ Thánh Ngô Đạo Tử được Đường Huyền Tông ra lệnh tu sửa tác phẩm thượng cổ "Thiên Lý Bất Chu Sơn", nhưng đã bất cẩn làm mất bức tranh này. Trong quá trình tìm tranh, một âm mưu được ấp ủ đã lâu âm thầm giáng xuống, Ngô Đạo Tử cũng phát hiện bí mật ẩn giấu trong "Bút Phong Thần"</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -639,28 +592,23 @@
       <c r="K3" t="inlineStr">
         <is>
           <t>2021</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>TanCoKyam1:AmThanhSatCo</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tay Xạ Thủ</t>
+          <t>Pray Away: Hệ Lụy Của Phong Trào Ex-gay</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The Marksman (2021)</t>
+          <t>Pray Away (2021)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.6</t>
+          <t xml:space="preserve"> 6.5</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -670,7 +618,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Hành động,</t>
+          <t>Tài liệu, LGBTQ+,</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -680,17 +628,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Kristine Stolakis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>108 phút</t>
+          <t>101 phút</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Một chủ trang trại ở biên giới Arizona trở thành người bảo vệ bất đắc dĩ với một cậu bé Mexico đang liều lĩnh chạy trốn những tên sát thủ băng đảng đã truy đuổi tới Hoa Kỳ.</t>
+          <t>Nạn nhân và cựu lãnh đạo phong trào "liệu pháp chuyển đổi" lên tiếng về tác hại của phong trào này đối với cộng đồng LGBTQ+ và sự tàn phá dai dẳng của nó.</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -701,58 +649,53 @@
       <c r="K4" t="inlineStr">
         <is>
           <t>2021</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>TayXaThu</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Trả Đũa</t>
+          <t>Đạo Mộ Bút Ký: Trùng Khởi: Xà Cốt Phật Thuế</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Payback (2021)</t>
+          <t>Escape from the Monstrous Snake (2021)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6</t>
+          <t xml:space="preserve"> Đang cập nhật</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Quý Thần, Bành Cao Xướng, Tần Sở Minh</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Kinh dị, Kịch tính, hồi hộp, Tâm lý,</t>
+          <t>Hành động, Phim mới,</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mỹ</t>
+          <t xml:space="preserve"> Trung Quốc</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Joseph Mensch</t>
+          <t xml:space="preserve"> Đang cập nhật</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>91 phút</t>
+          <t>88 phút</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Một nhân viên môi giới chứng khoán trẻ tuổi tại một công ty ở Phố Wall do Mob kiểm soát bị phản bội và bị tống vào tù 6 năm. Khi ra ngoài, anh ta tìm cách trả thù.</t>
+          <t>Phim kể về cuộc phiêu lưu của Hắc Hạt Tử , để giải cứu những người đồng đội trong quá khứ, đi sâu vào những khu rừng rậm của Campuchia, chiến đấu chống lại những con sâu kỳ dị và kỳ dị ẩn sâu trong những di tích , và giải mã bí ẩn về sự mất tích của những người đồng đội.</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -763,23 +706,18 @@
       <c r="K5" t="inlineStr">
         <is>
           <t>2021</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Traua</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Godzilla Đại Chiến Kong</t>
+          <t>Xà Vương</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Godzilla vs. Kong (2021)</t>
+          <t>King Of Snake (2021)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -789,32 +727,32 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Kang Ning, Chen Xinzhe, Shao Shuai, Guo Zhen, Guo Jiayi, Zhang Qi, Gao Zijian , Liu Yongqi</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Kịch tính, hồi hộp, Thần thoại, Viễn tưởng, Phim chiếu rạp,</t>
+          <t>Hành động, Viễn tưởng, Phim mới,</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mỹ</t>
+          <t xml:space="preserve"> Trung Quốc</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Chen Huanxiang</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>100 phút</t>
+          <t>87 phút</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Khi hai kẻ thù truyền kiếp gặp nhau trong một trận chiến ngoạn mục, số phận của cả thế giới vẫn còn bị bỏ ngỏ… Bị đưa khỏi Đảo Đầu Lâu, Kong cùng Jia, một cô bé mồ côi có mối liên kết mạnh mẽ với mình và đội bảo vệ đặc biệt hướng về mái nhà mới. Bất ngờ, nhóm đụng độ phải Godzilla hùng mạnh, tạo ra một làn sóng hủy diệt trên toàn cầu. Thực chất, cuộc chiến giữa hai kẻ khổng lồ dưới sự thao túng của các thế lực vô hình mới chỉ là điểm khởi đầu để khám phá những bí ẩn nằm sâu trong tâm Trái đất.</t>
+          <t>Phim kể về thời kỳ lãnh chúa xây dựng đường sắt, phá rừng, hủy hoại môi trường sinh thái, dẫn đến việc rắn trả thù, làng Yongan đã bị một số lượng lớn rắn độc tấn công, dân trong làng bị thương vong nặng nề. Một nhóm điều tra đã tiến sâu vào rừng tìm kiếm về câu chuyện Xà Vương.</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -825,58 +763,53 @@
       <c r="K6" t="inlineStr">
         <is>
           <t>2021</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>GodzillaaiChienKong</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Mao Sơn Đại Sư</t>
+          <t>Vợ Của Jakob</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Master Of Maoshan (2021)</t>
+          <t>Jakobs Wife (2021)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> 5.2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Barbara Crampton, Larry Fessenden, Bonnie Aarons .</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Thần thoại, Viễn tưởng, Cổ trang,</t>
+          <t>Kinh dị, Hành động, Phim mới,</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trung Quốc</t>
+          <t xml:space="preserve"> Mỹ</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Travis Stevens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>78 phút</t>
+          <t>98 phút</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> là bộ phim thuộc thể loại viễn tưởng, ảo mộng của Trung Quốc, được ra mắt vào năm 2021. Tác phẩm do đạo diễn Xiong Chen chịu trách nhiệm chỉ đạo, với sự tham gia của các diễn viên Bàng Ngỗ Mỗ, Shihan Yue.</t>
+          <t>Bộ phim theo chân Anne (Crampton), người đã kết hôn với giám đốc ở thị trấn nhỏ tên là (Crampton). Cô có khao khát làm gì đó nhiều hơn là cuộc sống giản dị với vai trò nội trợ cho mục sư ở thị trấn. Tuy nhiên, sau cuộc gặp gỡ với người lạ mặt, cô sớm thấy mình phải đối mặt với một sinh vật bóng đêm. Cô ấy quay về nhà với một vết cắn trên cổ và cuộc sống mà cô ấy biết rằng sẽ sớm ập xuống khi cô ấy bắt đầu thèm máu tươi và nhạy cảm với ánh sáng mặt trời...</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -887,58 +820,53 @@
       <c r="K7" t="inlineStr">
         <is>
           <t>2021</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>MaoSonaiSu</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bình Ma Sách: Hồng Nhan Trường Tình Kiếm</t>
+          <t>Chú Gấu Vivo</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>The Sword (2021)</t>
+          <t>Vivo (2021)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> 6.9</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Lin-Manuel Miranda, Ynairaly Simo, Zoe Saldana</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Thần thoại, Viễn tưởng, Kiếm hiệp, võ thuật, Cổ trang,</t>
+          <t>Hoạt hình, Phim mới, Anime,</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trung Quốc</t>
+          <t xml:space="preserve"> Mỹ</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Kirk DeMicco, Brandon Jeffords</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>82 phút</t>
+          <t>100 phút</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Bình Ma Sách: Hồng Nhan Trường Tình Kiếm - The Sword (2021) xoay quanh việc một mầm bệnh lạ xuất hiện làm cho người dân biến thành quỷ hút máu không có nhân tính khiến Trung Nguyên rơi vào hỗn loạn. Trước đây ÂU Dương Thuần là người duy nhất tiêu diệt Quỷ Tổ - nguồn gốc mầm bệnh - bằng thanh kiếm cổ. Nhưng không ngờ rằng người yêu Bội Như của anh lại đồng thời là chị của tân Quỷ Tổ Nhạc Thanh ma. Nhiều năm sau đó, Âu Dương Thuần tìm được cách biến Bội Như trở thành người thường. Nhưng đúng vào đêm thực hiện việc biến đổi thì Âu Dương Dật lộ bộ mặt muốn âm mưu biến Thanh ma thành Quỷ Tổ mới, hắn ta lên kế hoạch độc tôn thiên hạ.</t>
+          <t>Một chú gấu trúc potôt yêu âm nhạc bắt đầu hành trình hiếm có trong đời để hoàn thành định mệnh của mình và trao bản tình ca cho một người bạn cũ.</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -949,23 +877,18 @@
       <c r="K8" t="inlineStr">
         <is>
           <t>2021</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>BinhMaSach:HongNhanTruongTinhKiem</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ngã Rẽ Tử Thần 7</t>
+          <t>Biệt Đội Cảm Tử 2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Wrong Turn 7 (2021)</t>
+          <t>The Suicide Squad (2021)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -975,12 +898,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Margot Robbie, Idris Elba, John Cena, Sylvester Stallone, Sean Gunn, Jennifer Holland, Storm Reid</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Kinh dị, Viễn tưởng, Phim chiếu rạp,</t>
+          <t>Hài hước, Hành động, Viễn tưởng, Siêu anh hùng,</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -990,17 +913,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> James Gunn</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>109 phút</t>
+          <t>137 phút</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sẽ là bước ngoặt mới cho loạt phim dài hơi dường như đã đi vào ngõ cụt. Phim đưa một nhóm bạn không may mắn đến Harpers Ferry, Tây Virginia để dành vài ngày đi bộ đường dài trên đường mòn Appalachian. Trong phần này, họ phải đối mặt với “The Foundation”, một cộng đồng những người đã sống trên núi từ trước Nội chiến, và họ không tốt với người lạ.</t>
+          <t xml:space="preserve"> sẽ là đội hình của các gương mặt mới toanh ngoại trừ ác nữ Harley Quinn. Lần này những tên tội phạm bất hảo nhất sẽ cùng nhau tập hợp thực hiện nhiệm vụ mới vô cùng đáng mong chờ. Tay súng Bloodsport, kẻ dám nã đạn vào Superman; người đại diện cho hòa bình Peacemaker; Bloodsport và đội trưởng Rick Flag, Harley Quinn sẽ là tổ hợp điên rồ mang đến những phân cảnh tóe lửa cực cháy.</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1011,38 +934,33 @@
       <c r="K9" t="inlineStr">
         <is>
           <t>2021</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>NgaReTuThan7</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Kẻ Vô Danh</t>
+          <t>Hậu Họa</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nobody (2021)</t>
+          <t>Aftermath (2021)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.8</t>
+          <t xml:space="preserve"> 5.4</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Ashley Greene, Shawn Ashmore, Sharif Atkins</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Hành động, Hình sự, Tâm lý,</t>
+          <t>Phim mới, Tâm lý,</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1052,17 +970,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ilya Naishuller</t>
+          <t xml:space="preserve"> Peter Winther</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>92 phút</t>
+          <t>114 phút</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Đôi khi người đàn ông mà bạn không để ý lại là người nguy hiểm nhất. Hutch Mansell, một người cha và người chồng bị đánh giá thấp và bị coi thường, luôn coi thường sự phẫn nộ của cuộc đời và không bao giờ lùi bước. Một kẻ vô danh.</t>
+          <t>Tuyệt vọng để cứu vãn cuộc hôn nhân của họ, một cặp vợ chồng trẻ đã thỏa thuận và tiến vào giấc mơ của họ...</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1073,23 +991,18 @@
       <c r="K10" t="inlineStr">
         <is>
           <t>2021</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>KeVoDanh</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Kẻ Cố Vấn Mafia - Tập Đặc Biệt</t>
+          <t>Đảo Xà Vương</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Vincenzo - Special (2021)</t>
+          <t>King Serpent Island (2021)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1099,17 +1012,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Liu Lin Cheng, Shao Yun, Wang Hong Qian</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Kịch tính, hồi hộp, Hành động, Hình sự,</t>
+          <t>Hành động, Phim mới,</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hàn Quốc</t>
+          <t xml:space="preserve"> Trung Quốc</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1119,12 +1032,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>60 phút</t>
+          <t>92 phút</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> là bộ phim thuộc thể loại hành động, tội phạm xen lẫn những yếu tố hài hước, lãng mãn. Phim do đạo diễn nổi tiếng Kim Hee Won sản xuất cùng sự góp mặt của dàn diễn viên tài năng như Song Joong Ki, Jeon Yeo Bin, Ok Taecyeon,...</t>
+          <t>Nói về câu chuyện đấu tranh giữa nhóm Trần Tranh muốn bảo vệ loài rắn khổng lồ có nguy cơ tuyệt chủng và băng nhóm săn rắn trục lợi. Lính đặc chủng giải ngũ, nhân viên thu thập số liệu loài rắn, ba người Trần Tranh, Châu Hiểu Hiểu và Mã Phấn cùng đến đảo Xà Vương thu thập số liệu, không ngờ gặp phải băng nhóm bắt rắn cực hung ác do Kim lão tứ cầm đầu. Trong lúc rắn khổng lồ đẻ trứng, hai nhóm người bắt đầu liều chết đọ sức, cuối cùng nhóm người Trần Tranh thuận lợi rời khỏi đảo Xà Vương, còn Kim lão tứ hám lợi đen lòng bị rắn khổng lồ nuốt trọn. Cuối cùng đảo Xà Vương được liệt vào khu bảo tồn loài rắn, ba người Trần Tranh cũng bảo vệ hoà bình sinh thái, bảo vệ môi trường tự nhiên.</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1135,23 +1048,18 @@
       <c r="K11" t="inlineStr">
         <is>
           <t>2021</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>KeCoVanMafia-TapacBiet</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Kẻ Cố Vấn Mafia - Tập Đặc Biệt</t>
+          <t>Lãng Khách Kenshin: Khởi Đầu (Phần 2)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Vincenzo - Special (2021)</t>
+          <t>Rurouni Kenshin: The Beginning Part II (2021)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1161,32 +1069,32 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Takeru Satoh, Emi Takei, Munetaka Aoki, Yū Aoi, Riku Onishi</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Kịch tính, hồi hộp, Hành động, Hình sự,</t>
+          <t>Hành động, Kiếm hiệp, võ thuật, Cổ trang,</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hàn Quốc</t>
+          <t xml:space="preserve"> Nhật Bản</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Ohtomo Keishi</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>60 phút</t>
+          <t>137 phút</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> là bộ phim thuộc thể loại hành động, tội phạm xen lẫn những yếu tố hài hước, lãng mãn. Phim do đạo diễn nổi tiếng Kim Hee Won sản xuất cùng sự góp mặt của dàn diễn viên tài năng như Song Joong Ki, Jeon Yeo Bin, Ok Taecyeon,...</t>
+          <t xml:space="preserve"> là bộ phim Live-action của Nhật Bản được phát hành năm 2021. Tác phẩm do đạo diễn Keishi Otomo chịu trách nhiệm chỉ đạo. Đây là phần thứ 5 của loạt phim và cũng là phần cuối trong series Rurouni Kenshin dựa trên manga cùng tên</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1197,23 +1105,18 @@
       <c r="K12" t="inlineStr">
         <is>
           <t>2021</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>KeCoVanMafia-TapacBiet</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Tân Cô Kỳ Đàm 1: Ám Thành Sát Cơ</t>
+          <t>Đảo Xà Vương</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Deadly Puppet (2021)</t>
+          <t>King Serpent Island (2021)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1223,12 +1126,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Muchuan Ji, Sun Shenghao L, Xinrui Han, Zhang Ke Ke Zhang</t>
+          <t xml:space="preserve"> Liu Lin Cheng, Shao Yun, Wang Hong Qian</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Kịch tính, hồi hộp, Hình sự, Viễn tưởng, Phim lẻ, Phim mới,</t>
+          <t>Hành động, Phim mới,</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1243,12 +1146,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>97 phút</t>
+          <t>92 phút</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Bộ phim kể về một loạt các vụ giết người ở thành Tân Cô dưới thời Trung Hoa Dân Quốc, cảnh sát lúc đó bị thất thế. Đoạn Vũ Hào và Trâu Thích, những người dùng "phong thủy phá án" đã điều tra những vụ án bí ẩn này, vô tình lại khám phá thêm về vụ án "giết người liên hoàn la sát điểu" của nhiều năm trước. Các nhân vật chính đã cùng nhau tìm ra sự thật phía sau các vụ án đồng thời giải quyết câu chuyện về kẻ sát nhân thực sự.</t>
+          <t>Nói về câu chuyện đấu tranh giữa nhóm Trần Tranh muốn bảo vệ loài rắn khổng lồ có nguy cơ tuyệt chủng và băng nhóm săn rắn trục lợi. Lính đặc chủng giải ngũ, nhân viên thu thập số liệu loài rắn, ba người Trần Tranh, Châu Hiểu Hiểu và Mã Phấn cùng đến đảo Xà Vương thu thập số liệu, không ngờ gặp phải băng nhóm bắt rắn cực hung ác do Kim lão tứ cầm đầu. Trong lúc rắn khổng lồ đẻ trứng, hai nhóm người bắt đầu liều chết đọ sức, cuối cùng nhóm người Trần Tranh thuận lợi rời khỏi đảo Xà Vương, còn Kim lão tứ hám lợi đen lòng bị rắn khổng lồ nuốt trọn. Cuối cùng đảo Xà Vương được liệt vào khu bảo tồn loài rắn, ba người Trần Tranh cũng bảo vệ hoà bình sinh thái, bảo vệ môi trường tự nhiên.</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1259,23 +1162,18 @@
       <c r="K13" t="inlineStr">
         <is>
           <t>2021</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>TanCoKyam1:AmThanhSatCo</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Kẻ Cố Vấn Mafia - Tập Đặc Biệt</t>
+          <t>Lãng Khách Kenshin: Khởi Đầu (Phần 2)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Vincenzo - Special (2021)</t>
+          <t>Rurouni Kenshin: The Beginning Part II (2021)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1285,32 +1183,32 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Takeru Satoh, Emi Takei, Munetaka Aoki, Yū Aoi, Riku Onishi</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Kịch tính, hồi hộp, Hành động, Hình sự,</t>
+          <t>Hành động, Kiếm hiệp, võ thuật, Cổ trang,</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hàn Quốc</t>
+          <t xml:space="preserve"> Nhật Bản</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Ohtomo Keishi</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>60 phút</t>
+          <t>137 phút</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> là bộ phim thuộc thể loại hành động, tội phạm xen lẫn những yếu tố hài hước, lãng mãn. Phim do đạo diễn nổi tiếng Kim Hee Won sản xuất cùng sự góp mặt của dàn diễn viên tài năng như Song Joong Ki, Jeon Yeo Bin, Ok Taecyeon,...</t>
+          <t xml:space="preserve"> là bộ phim Live-action của Nhật Bản được phát hành năm 2021. Tác phẩm do đạo diễn Keishi Otomo chịu trách nhiệm chỉ đạo. Đây là phần thứ 5 của loạt phim và cũng là phần cuối trong series Rurouni Kenshin dựa trên manga cùng tên</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1321,23 +1219,18 @@
       <c r="K14" t="inlineStr">
         <is>
           <t>2021</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>KeCoVanMafia-TapacBiet</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Tân Cô Kỳ Đàm 1: Ám Thành Sát Cơ</t>
+          <t>Thám Hiểm Rừng Xanh</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Deadly Puppet (2021)</t>
+          <t>Jungle Cruise (2021)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1347,32 +1240,32 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Muchuan Ji, Sun Shenghao L, Xinrui Han, Zhang Ke Ke Zhang</t>
+          <t xml:space="preserve"> Đang cập nhật</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Kịch tính, hồi hộp, Hình sự, Viễn tưởng, Phim lẻ, Phim mới,</t>
+          <t>Kịch tính, hồi hộp, Hành động, Phiêu lưu,</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trung Quốc</t>
+          <t xml:space="preserve"> Mỹ</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Jaume Collet-Serra</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>97 phút</t>
+          <t>100 phút</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Bộ phim kể về một loạt các vụ giết người ở thành Tân Cô dưới thời Trung Hoa Dân Quốc, cảnh sát lúc đó bị thất thế. Đoạn Vũ Hào và Trâu Thích, những người dùng "phong thủy phá án" đã điều tra những vụ án bí ẩn này, vô tình lại khám phá thêm về vụ án "giết người liên hoàn la sát điểu" của nhiều năm trước. Các nhân vật chính đã cùng nhau tìm ra sự thật phía sau các vụ án đồng thời giải quyết câu chuyện về kẻ sát nhân thực sự.</t>
+          <t xml:space="preserve">Bộ phim </t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1383,58 +1276,53 @@
       <c r="K15" t="inlineStr">
         <is>
           <t>2021</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>TanCoKyam1:AmThanhSatCo</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Kẻ Cố Vấn Mafia - Tập Đặc Biệt</t>
+          <t>Thủy Thủ Mặt Trăng: Vĩnh Hằng (Phần 2)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Vincenzo - Special (2021)</t>
+          <t>Pretty Guardian Sailor Moon Eternal (Season 2) (2021)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> 7.2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Kotono Mitsuishi, Stephanie Sheh, Kate Higgins, Cristina Valenzuela, Amanda Céline Miller</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Kịch tính, hồi hộp, Hành động, Hình sự,</t>
+          <t>Hành động, Hoạt hình, Phim mới, Anime,</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hàn Quốc</t>
+          <t xml:space="preserve"> Nhật Bản</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Chiaki Kon</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>60 phút</t>
+          <t>81 phút</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> là bộ phim thuộc thể loại hành động, tội phạm xen lẫn những yếu tố hài hước, lãng mãn. Phim do đạo diễn nổi tiếng Kim Hee Won sản xuất cùng sự góp mặt của dàn diễn viên tài năng như Song Joong Ki, Jeon Yeo Bin, Ok Taecyeon,...</t>
+          <t>Thủy Thủ Mặt Trăng: Vĩnh Hằng (Phần 2) kể về khi thế lực hắc ám bao trùm Trái Đất sau nhật thực toàn phần, các Chiến binh Thủy thủ đang phân tán phải đoàn tụ để đưa ánh sáng trở lại với thế giới.</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1445,23 +1333,18 @@
       <c r="K16" t="inlineStr">
         <is>
           <t>2021</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>KeCoVanMafia-TapacBiet</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Kẻ Cố Vấn Mafia - Tập Đặc Biệt</t>
+          <t>Cậu Bé Sau Cánh Cửa</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Vincenzo - Special (2021)</t>
+          <t>The Boy Behind The Door (2021)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1471,32 +1354,32 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Ezra Dewey, Lonnie Chavis, Kristin Bauer Van Straten</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Kịch tính, hồi hộp, Hành động, Hình sự,</t>
+          <t>Kinh dị, Hành động, Tâm lý,</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hàn Quốc</t>
+          <t xml:space="preserve"> Mỹ</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Junstin Powell, David Charbonier</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>60 phút</t>
+          <t>88 phút</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> là bộ phim thuộc thể loại hành động, tội phạm xen lẫn những yếu tố hài hước, lãng mãn. Phim do đạo diễn nổi tiếng Kim Hee Won sản xuất cùng sự góp mặt của dàn diễn viên tài năng như Song Joong Ki, Jeon Yeo Bin, Ok Taecyeon,...</t>
+          <t xml:space="preserve"> thuộc thể loại hành động, tâm lý và Kinh dị. Phim được sản xuất bởi hai đạo diễn Junstin Powell, David Charbonier với thời lượng 88 phút. Phim nói về câu chuyện sau khi Bobby và người bạn thân nhất của mình là Kevin bị bắt cóc và đưa đến một ngôi nhà kỳ lạ giữa hư không, Bobby đã trốn thoát được. Nhưng khi bắt đầu nghỉ ngơi, anh ấy nghe thấy tiếng kêu cứu của Kevin và nhận ra rằng anh ấy không thể bỏ bạn mình ở lại. Khi này Boddy sẽ quyết định cứu bạn bằng cách nào?</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1507,58 +1390,53 @@
       <c r="K17" t="inlineStr">
         <is>
           <t>2021</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>KCVnMafia-TpcBit</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Kẻ Cố Vấn Mafia - Tập Đặc Biệt</t>
+          <t>Võ Sĩ Báo Thù</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Vincenzo - Special (2021)</t>
+          <t>Bartkowiak (2021)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> 5.6</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Szymon Bobrowski, Janusz,Zofia Domalik.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Kịch tính, hồi hộp, Hành động, Hình sự,</t>
+          <t>Hành động, Phim mới,</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hàn Quốc</t>
+          <t xml:space="preserve"> Mỹ</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Daniel Markowicz</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>60 phút</t>
+          <t>92 phút</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> là bộ phim thuộc thể loại hành động, tội phạm xen lẫn những yếu tố hài hước, lãng mãn. Phim do đạo diễn nổi tiếng Kim Hee Won sản xuất cùng sự góp mặt của dàn diễn viên tài năng như Song Joong Ki, Jeon Yeo Bin, Ok Taecyeon,...</t>
+          <t>Một võ sĩ MMA chuyên nghiệp, biến mất khỏi làng MMA và thay đổi cuộc sống hiện tại của mình.Anh tiếp quản hộp đêm của gia đình có tên là Ring sau khi anh trai qua đời. Sau nhiều lần điều tra, anh biết rằng cái chết của anh trai mình không phải là một vụ tai nạn đơn thuần, mà có kẻ đã ra tay sắp đặt mọi thứ...</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1569,23 +1447,18 @@
       <c r="K18" t="inlineStr">
         <is>
           <t>2021</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>KCVnMafia-TpcBit</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Kẻ Cố Vấn Mafia - Tập Đặc Biệt</t>
+          <t>Tay Súng Thần Sầu</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Vincenzo - Special (2021)</t>
+          <t>The Sniper (2021)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1595,17 +1468,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Huang Meng, Li Meng Meng, Wang Wen Jie</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Kịch tính, hồi hộp, Hành động, Hình sự,</t>
+          <t>Kịch tính, hồi hộp, Hành động, Hình sự, Phim mới,</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hàn Quốc</t>
+          <t xml:space="preserve"> Trung Quốc</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1615,12 +1488,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>60 phút</t>
+          <t>88 phút</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> là bộ phim thuộc thể loại hành động, tội phạm xen lẫn những yếu tố hài hước, lãng mãn. Phim do đạo diễn nổi tiếng Kim Hee Won sản xuất cùng sự góp mặt của dàn diễn viên tài năng như Song Joong Ki, Jeon Yeo Bin, Ok Taecyeon,...</t>
+          <t>Bộ phim là câu chuyện về xoay quanh cuộc truy đuổi của rất nhiều người xoay quanh một tay bắn thần sầu được mệnh danh là "Bàn Tay Quỷ". Liệu thân thế thật sự của "Bàn Tay Quỷ" là gì?</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1631,58 +1504,53 @@
       <c r="K19" t="inlineStr">
         <is>
           <t>2021</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>KeCoVanMafia-TapDacBiet</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Tân Cô Kỳ Đàm 1: Ám Thành Sát Cơ</t>
+          <t>Giam Cầm</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Deadly Puppet (2021)</t>
+          <t>The Mauritanian (2021)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> 7.5</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Muchuan Ji, Sun Shenghao L, Xinrui Han, Zhang Ke Ke Zhang</t>
+          <t xml:space="preserve"> Adam Ackland, Michael Bronner, Benedict Cumberbatch</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Kịch tính, hồi hộp, Hình sự, Viễn tưởng, Phim lẻ, Phim mới,</t>
+          <t>Hành động, Tâm lý, Phim chiếu rạp,</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trung Quốc</t>
+          <t xml:space="preserve"> Mỹ</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Kevin Macdonald</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>97 phút</t>
+          <t>129 phút</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Bộ phim kể về một loạt các vụ giết người ở thành Tân Cô dưới thời Trung Hoa Dân Quốc, cảnh sát lúc đó bị thất thế. Đoạn Vũ Hào và Trâu Thích, những người dùng "phong thủy phá án" đã điều tra những vụ án bí ẩn này, vô tình lại khám phá thêm về vụ án "giết người liên hoàn la sát điểu" của nhiều năm trước. Các nhân vật chính đã cùng nhau tìm ra sự thật phía sau các vụ án đồng thời giải quyết câu chuyện về kẻ sát nhân thực sự.</t>
+          <t>Bộ phim chính kịch năm 2021 dựa trên câu chuyện có thật về Mohamedou Ould Slahi, một người đàn ông Mauritanian, người bị giam giữ trong mười bốn năm mà không bị buộc tội trong trại giam Vịnh Guantanamo, nhà tù quân sự tại Hoa Kỳ.</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1693,23 +1561,18 @@
       <c r="K20" t="inlineStr">
         <is>
           <t>2021</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>TanCoKyDam1:AmThanhSatCo</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Kẻ Cố Vấn Mafia - Tập Đặc Biệt</t>
+          <t>Căn Phòng Số 9</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Vincenzo - Special (2021)</t>
+          <t>Room 9 (2021)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1719,32 +1582,32 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Brian Anthony Wilson, David Raine, Kane Hodder, Michael Berryman, Michael Emery, Scout Taylor-Compton, Tony Devon</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Kịch tính, hồi hộp, Hành động, Hình sự,</t>
+          <t>Kinh dị, Kịch tính, hồi hộp, Hành động, Phim mới,</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hàn Quốc</t>
+          <t xml:space="preserve"> Mỹ</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Thomas Walton</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>60 phút</t>
+          <t>104 phút</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> là bộ phim thuộc thể loại hành động, tội phạm xen lẫn những yếu tố hài hước, lãng mãn. Phim do đạo diễn nổi tiếng Kim Hee Won sản xuất cùng sự góp mặt của dàn diễn viên tài năng như Song Joong Ki, Jeon Yeo Bin, Ok Taecyeon,...</t>
+          <t>40 năm trước, nhóm người gây ra án mạng thảm sát người phụ nữ tại căn phòng số 9. Những tưởng hành vi đó đã được luật sư biện hộ cho trắng án thành công sẽ êm xuôi ai ngờ một ngày nọ, một kẻ giấu mặt xuất hiện tiến hành kế hoạch hành hạ họ như cách của 40 năm trước.</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1755,23 +1618,18 @@
       <c r="K21" t="inlineStr">
         <is>
           <t>2021</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>KeCoVanMafia-TapDacBiet</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Kẻ Cố Vấn Mafia - Tập Đặc Biệt</t>
+          <t>Đường Ống</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Vincenzo - Special (2021)</t>
+          <t>Pipeline (2021)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1781,12 +1639,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Seo In Guk, Hyuk-Soo-Lee</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Kịch tính, hồi hộp, Hành động, Hình sự,</t>
+          <t>Hành động, Hình sự,</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1796,17 +1654,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Yoo Ha</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>60 phút</t>
+          <t>107 phút</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> là bộ phim thuộc thể loại hành động, tội phạm xen lẫn những yếu tố hài hước, lãng mãn. Phim do đạo diễn nổi tiếng Kim Hee Won sản xuất cùng sự góp mặt của dàn diễn viên tài năng như Song Joong Ki, Jeon Yeo Bin, Ok Taecyeon,...</t>
+          <t xml:space="preserve"> là bộ phim hành động tội phạm của Hàn Quốc năm 2021 do đạo diễn Yoo Ha chịu trách nhiệm chỉ đạo, với sự tham gia của các diễn viên Seo In-guk , Lee Soo-hyuk và Eum Moon-suk. Tác phẩm kể về câu chuyện sáu tên trộm mong muốn đổi đời bằng cách lấy trộm dầu được giấu trong một đường hầm...Xem thêm</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1817,58 +1675,53 @@
       <c r="K22" t="inlineStr">
         <is>
           <t>2021</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>KeCoVanMafia-TapDacBiet</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Kẻ Cố Vấn Mafia - Tập Đặc Biệt</t>
+          <t>Thai Của Quỷ</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Vincenzo - Special (2021)</t>
+          <t>Blood Born (2021)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> 4</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Antoine Perry, Cole Gerdes, Laurine Price, Leah Verrill, Melanie Haynes, Rosie Moss</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Kịch tính, hồi hộp, Hành động, Hình sự,</t>
+          <t>Kinh dị, Hành động, Phim mới, Phim chiếu rạp,</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hàn Quốc</t>
+          <t xml:space="preserve"> Mỹ</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Reed Shusterman</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>60 phút</t>
+          <t>92 phút</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> là bộ phim thuộc thể loại hành động, tội phạm xen lẫn những yếu tố hài hước, lãng mãn. Phim do đạo diễn nổi tiếng Kim Hee Won sản xuất cùng sự góp mặt của dàn diễn viên tài năng như Song Joong Ki, Jeon Yeo Bin, Ok Taecyeon,...</t>
+          <t xml:space="preserve">Một cặp vợ chồng sắp từ bỏ ước mơ có con thì tìm thấy một hứa hẹn một giải pháp kỳ diệu cho vấn đề vô sinh của họ, nhưng khi họ đến đó để thực hiện một loạt các nghi lễ kỳ lạ, được giám sát bởi một bác sĩ quyến rũ - nhưng nguy hiểm - , họ phát hiện ra rằng phép thuật vô cùng rủi ro và đứa trẻ mà họ sắp sinh ra có thể không phải là con người. </t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1879,23 +1732,18 @@
       <c r="K23" t="inlineStr">
         <is>
           <t>2021</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>KeCoVanMafia-TapDacBiet</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Kẻ Cố Vấn Mafia - Tập Đặc Biệt</t>
+          <t>Quỷ Máu</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Vincenzo - Special (2021)</t>
+          <t>Ping Mo Ce: The Red Sword Of Eternal Love (2021)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1905,32 +1753,32 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Yanbo Han, Chen Xixu</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Kịch tính, hồi hộp, Hành động, Hình sự,</t>
+          <t>Hành động, Viễn tưởng, Kiếm hiệp, võ thuật, Phim mới, Cổ trang,</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hàn Quốc</t>
+          <t xml:space="preserve"> Trung Quốc</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Yanbo Han</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>60 phút</t>
+          <t>81 phút</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> là bộ phim thuộc thể loại hành động, tội phạm xen lẫn những yếu tố hài hước, lãng mãn. Phim do đạo diễn nổi tiếng Kim Hee Won sản xuất cùng sự góp mặt của dàn diễn viên tài năng như Song Joong Ki, Jeon Yeo Bin, Ok Taecyeon,...</t>
+          <t>Năm năm trước, một loại virus phương Tây đã càn quét vùng Central Plains, biến con người thành những con quái vật khát máu. Họ được gọi là "quỷ máu."</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1941,23 +1789,18 @@
       <c r="K24" t="inlineStr">
         <is>
           <t>2021</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>KeCoVanMafia-TapDacBiet</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Kẻ Cố Vấn Mafia - Tập Đặc Biệt</t>
+          <t>Biến Chủng Rắn Điên</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Vincenzo - Special (2021)</t>
+          <t>Nowhere To Hide (2021)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1967,17 +1810,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Pang Yong</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Kịch tính, hồi hộp, Hành động, Hình sự,</t>
+          <t>Hành động, Phim mới, Phiêu lưu,</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hàn Quốc</t>
+          <t xml:space="preserve"> Trung Quốc</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1987,12 +1830,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>60 phút</t>
+          <t>76 phút</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> là bộ phim thuộc thể loại hành động, tội phạm xen lẫn những yếu tố hài hước, lãng mãn. Phim do đạo diễn nổi tiếng Kim Hee Won sản xuất cùng sự góp mặt của dàn diễn viên tài năng như Song Joong Ki, Jeon Yeo Bin, Ok Taecyeon,...</t>
+          <t>Một nhóm thực khách tham lam vốn định thưởng thức một bữa đại tiệc dân dã, nhưng rắn mối khổng lồ đột biến đã phát nát lồng sắt và trở thành một kẻ săn mồi đích thực. Sau bao khó khăn, cuối cùng chuyên gia bắt chuột A Phát cũng đã chế ngự được rắn mối khổng lồ…</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2003,58 +1846,53 @@
       <c r="K25" t="inlineStr">
         <is>
           <t>2021</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>KeCoVanMafia-TapDacBiet</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Tân Cô Kỳ Đàm 1: Ám Thành Sát Cơ</t>
+          <t>Thai Của Quỷ</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Deadly Puppet (2021)</t>
+          <t>Blood Born (2021)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> 4</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Muchuan Ji, Sun Shenghao L, Xinrui Han, Zhang Ke Ke Zhang</t>
+          <t xml:space="preserve"> Antoine Perry, Cole Gerdes, Laurine Price, Leah Verrill, Melanie Haynes, Rosie Moss</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Kịch tính, hồi hộp, Hình sự, Viễn tưởng, Phim lẻ, Phim mới,</t>
+          <t>Kinh dị, Hành động, Phim mới, Phim chiếu rạp,</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trung Quốc</t>
+          <t xml:space="preserve"> Mỹ</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Reed Shusterman</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>97 phút</t>
+          <t>92 phút</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Bộ phim kể về một loạt các vụ giết người ở thành Tân Cô dưới thời Trung Hoa Dân Quốc, cảnh sát lúc đó bị thất thế. Đoạn Vũ Hào và Trâu Thích, những người dùng "phong thủy phá án" đã điều tra những vụ án bí ẩn này, vô tình lại khám phá thêm về vụ án "giết người liên hoàn la sát điểu" của nhiều năm trước. Các nhân vật chính đã cùng nhau tìm ra sự thật phía sau các vụ án đồng thời giải quyết câu chuyện về kẻ sát nhân thực sự.</t>
+          <t xml:space="preserve">Một cặp vợ chồng sắp từ bỏ ước mơ có con thì tìm thấy một hứa hẹn một giải pháp kỳ diệu cho vấn đề vô sinh của họ, nhưng khi họ đến đó để thực hiện một loạt các nghi lễ kỳ lạ, được giám sát bởi một bác sĩ quyến rũ - nhưng nguy hiểm - , họ phát hiện ra rằng phép thuật vô cùng rủi ro và đứa trẻ mà họ sắp sinh ra có thể không phải là con người. </t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2065,23 +1903,18 @@
       <c r="K26" t="inlineStr">
         <is>
           <t>2021</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>TanCoKyDam1:AmThanhSatCo</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Kẻ Cố Vấn Mafia - Tập Đặc Biệt</t>
+          <t>Quỷ Máu</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Vincenzo - Special (2021)</t>
+          <t>Ping Mo Ce: The Red Sword Of Eternal Love (2021)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2091,32 +1924,32 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Yanbo Han, Chen Xixu</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Kịch tính, hồi hộp, Hành động, Hình sự,</t>
+          <t>Hành động, Viễn tưởng, Kiếm hiệp, võ thuật, Phim mới, Cổ trang,</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hàn Quốc</t>
+          <t xml:space="preserve"> Trung Quốc</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Yanbo Han</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>60 phút</t>
+          <t>81 phút</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> là bộ phim thuộc thể loại hành động, tội phạm xen lẫn những yếu tố hài hước, lãng mãn. Phim do đạo diễn nổi tiếng Kim Hee Won sản xuất cùng sự góp mặt của dàn diễn viên tài năng như Song Joong Ki, Jeon Yeo Bin, Ok Taecyeon,...</t>
+          <t>Năm năm trước, một loại virus phương Tây đã càn quét vùng Central Plains, biến con người thành những con quái vật khát máu. Họ được gọi là "quỷ máu."</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2127,23 +1960,18 @@
       <c r="K27" t="inlineStr">
         <is>
           <t>2021</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>KeCoVanMafia-TapDacBiet</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Tân Cô Kỳ Đàm 1: Ám Thành Sát Cơ</t>
+          <t>Biến Chủng Rắn Điên</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Deadly Puppet (2021)</t>
+          <t>Nowhere To Hide (2021)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2153,12 +1981,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Muchuan Ji, Sun Shenghao L, Xinrui Han, Zhang Ke Ke Zhang</t>
+          <t xml:space="preserve"> Pang Yong</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Kịch tính, hồi hộp, Hình sự, Viễn tưởng, Phim lẻ, Phim mới,</t>
+          <t>Hành động, Phim mới, Phiêu lưu,</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2173,12 +2001,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>97 phút</t>
+          <t>76 phút</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Bộ phim kể về một loạt các vụ giết người ở thành Tân Cô dưới thời Trung Hoa Dân Quốc, cảnh sát lúc đó bị thất thế. Đoạn Vũ Hào và Trâu Thích, những người dùng "phong thủy phá án" đã điều tra những vụ án bí ẩn này, vô tình lại khám phá thêm về vụ án "giết người liên hoàn la sát điểu" của nhiều năm trước. Các nhân vật chính đã cùng nhau tìm ra sự thật phía sau các vụ án đồng thời giải quyết câu chuyện về kẻ sát nhân thực sự.</t>
+          <t>Một nhóm thực khách tham lam vốn định thưởng thức một bữa đại tiệc dân dã, nhưng rắn mối khổng lồ đột biến đã phát nát lồng sắt và trở thành một kẻ săn mồi đích thực. Sau bao khó khăn, cuối cùng chuyên gia bắt chuột A Phát cũng đã chế ngự được rắn mối khổng lồ…</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2189,38 +2017,33 @@
       <c r="K28" t="inlineStr">
         <is>
           <t>2021</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>TanCoKyDam1:AmThanhSatCo</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Tay Xạ Thủ</t>
+          <t>Ngập Vốn</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>The Marksman (2021)</t>
+          <t>Bankrolled (2021)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.6</t>
+          <t xml:space="preserve"> Đang cập nhật</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Aldo Escalante, Ricardo Polanco, Natalia Téllez</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Hành động,</t>
+          <t>Hài hước,</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2230,17 +2053,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Marcos Bucay</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>108 phút</t>
+          <t>97 phút</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Một chủ trang trại ở biên giới Arizona trở thành người bảo vệ bất đắc dĩ với một cậu bé Mexico đang liều lĩnh chạy trốn những tên sát thủ băng đảng đã truy đuổi tới Hoa Kỳ.</t>
+          <t xml:space="preserve"> kể về hai chiến hữu lêu lổng thế hệ Y phê thuốc rồi quảng cáo một ứng dụng mới táo bạo về công bằng xã hội và gọi vốn hàng triệu USD. Rồi họ phải làm ra ứng dụng này.</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2251,38 +2074,33 @@
       <c r="K29" t="inlineStr">
         <is>
           <t>2021</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>TayXaThu</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Trả Đũa</t>
+          <t>Cạnh Bên Nhau</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Payback (2021)</t>
+          <t>Together Together (2021)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6</t>
+          <t xml:space="preserve"> Đang cập nhật</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Patti Harrison, Ed Helms, Rosalind Chao, Timm Sharp, Bianca Lopez</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Kinh dị, Kịch tính, hồi hộp, Tâm lý,</t>
+          <t>Hài hước, Tình cảm, lãng mạn, Tâm lý,</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2292,17 +2110,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Joseph Mensch</t>
+          <t xml:space="preserve"> Nikole Beckwith</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>91 phút</t>
+          <t>90 phút</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Một nhân viên môi giới chứng khoán trẻ tuổi tại một công ty ở Phố Wall do Mob kiểm soát bị phản bội và bị tống vào tù 6 năm. Khi ra ngoài, anh ta tìm cách trả thù.</t>
+          <t xml:space="preserve"> mở đầu với những câu hỏi có vẻ rất khó xử và mang tính thẩm vấn hơn là quan tâm. Cô gái trong câu chuyện là Anna, làm nhân viên pha chế tại một quán cà phê, cô không học đại học, rời trường học và gia đình không mấy hạnh phúc bằng cách chuyển đến San Francisco sau khi mang thai. Cô hy vọng số tiền từ Matt sẽ giúp cô có cơ hội theo học một chương trình cấp tốc ở Vermont. Phía bên kia là Matt, anh chàng muốn Anna mang thai hộ đang sống trong tình trạng lấp lửng. Bạn bè của anh ta đã có gia đình hoặc đang lang thang ở đâu đó, khiến Matt không có mối liên hệ thực sự. Với nghề thiết kế ứng dụng, Matt đã kiếm được một số tiền lớn khi tạo ra một nền tảng có tên là Loner, cho phép người dùng theo dõi người khác đang trực tuyến mà không phá vỡ các ranh giới vật lý.</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2313,38 +2131,33 @@
       <c r="K30" t="inlineStr">
         <is>
           <t>2021</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>TraDua</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Godzilla Đại Chiến Kong</t>
+          <t>Hóa Trang</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Godzilla vs. Kong (2021)</t>
+          <t>Masquerade (2021)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> 3.9</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Alyvia Alyn Lind, Austin Nichols, Bella Thorne, Mircea Monroe, Skyler Samuels</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Kịch tính, hồi hộp, Thần thoại, Viễn tưởng, Phim chiếu rạp,</t>
+          <t>Hành động, Phim mới, Phim chiếu rạp,</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2354,17 +2167,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Shane Dax Taylor</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>100 phút</t>
+          <t>80 phút</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Khi hai kẻ thù truyền kiếp gặp nhau trong một trận chiến ngoạn mục, số phận của cả thế giới vẫn còn bị bỏ ngỏ… Bị đưa khỏi Đảo Đầu Lâu, Kong cùng Jia, một cô bé mồ côi có mối liên kết mạnh mẽ với mình và đội bảo vệ đặc biệt hướng về mái nhà mới. Bất ngờ, nhóm đụng độ phải Godzilla hùng mạnh, tạo ra một làn sóng hủy diệt trên toàn cầu. Thực chất, cuộc chiến giữa hai kẻ khổng lồ dưới sự thao túng của các thế lực vô hình mới chỉ là điểm khởi đầu để khám phá những bí ẩn nằm sâu trong tâm Trái đất.</t>
+          <t>Một cô gái trẻ phải vật lộn để tồn tại sau khi một nhóm người đột nhập vào nhà cô để lấy cắp tác phẩm nghệ thuật vô giá của gia đình cô...</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2375,23 +2188,18 @@
       <c r="K31" t="inlineStr">
         <is>
           <t>2021</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>GodzillaDaiChienKong</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Mao Sơn Đại Sư</t>
+          <t>Bầu Trời Nhuốm Máu</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Master Of Maoshan (2021)</t>
+          <t>Blood Red Sky (2021)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2401,32 +2209,32 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Dominic Purcell, Garham McTavish, Peri Baumeister</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Thần thoại, Viễn tưởng, Cổ trang,</t>
+          <t>Kinh dị,</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trung Quốc</t>
+          <t xml:space="preserve"> Mỹ</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Peter Thorwarth</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>78 phút</t>
+          <t>121 phút</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> là bộ phim thuộc thể loại viễn tưởng, ảo mộng của Trung Quốc, được ra mắt vào năm 2021. Tác phẩm do đạo diễn Xiong Chen chịu trách nhiệm chỉ đạo, với sự tham gia của các diễn viên Bàng Ngỗ Mỗ, Shihan Yue.</t>
+          <t xml:space="preserve"> xoay quanh câu chuyện của một người phụ nữ mắc chứng bệnh bí ẩn, khi bay cùng người con trai của mình thì chuyến bay này bị nhóm khủng bố cướp chuyến bay xuyên Đại Tây Dương buộc cô phải nói ra một bí mật cực kỳ đáng sợ.</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2437,23 +2245,18 @@
       <c r="K32" t="inlineStr">
         <is>
           <t>2021</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>MaoSonDaiSu</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Kẻ Cố Vấn Mafia - Tập Đặc Biệt</t>
+          <t>Vũ Khí Thịnh Nộ</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Vincenzo - Special (2021)</t>
+          <t>Jolt (2021)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2463,32 +2266,32 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Kate Beckinsale, Bobby Cannavale, Laverne Cox, Stanley Tucci, Jai Courtney</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Kịch tính, hồi hộp, Hành động, Hình sự,</t>
+          <t>Hài hước, Kịch tính, hồi hộp, Hành động, Hình sự, Viễn tưởng,</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hàn Quốc</t>
+          <t xml:space="preserve"> Mỹ</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Tanya Wexler</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>60 phút</t>
+          <t>91 phút</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> là bộ phim thuộc thể loại hành động, tội phạm xen lẫn những yếu tố hài hước, lãng mãn. Phim do đạo diễn nổi tiếng Kim Hee Won sản xuất cùng sự góp mặt của dàn diễn viên tài năng như Song Joong Ki, Jeon Yeo Bin, Ok Taecyeon,...</t>
+          <t>Bộ phim theo chân Linda - một phụ nữ trẻ với một chứng bệnh lạ kỳ: cô sẽ bùng nổ những cơn giận của mình một cách bất ngờ với những kẻ mà cô cho là...xấu tính. Một nhà khoa học đã trang bị cho cô một bộ giáp giúp cô kiểm soát hành vi của mình, và hướng năng lượng các cơn giận của cô tới những mục tiêu xứng đáng. Tuy nhiên, liệu cô gái của chúng ta có thể thực sự làm điều đó, khi mà cô vừa phát hiện người bạn trai của mình bị sát hại bởi một băng đảng mafia trong khu vực?</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2499,23 +2302,18 @@
       <c r="K33" t="inlineStr">
         <is>
           <t>2021</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>KeCoVanMafia-TapDacBiet</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Kẻ Cố Vấn Mafia - Tập Đặc Biệt</t>
+          <t>Long Quan Cổ Mộ: Vua Sói Tây Hạ</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Vincenzo - Special (2021)</t>
+          <t>The Dragon Tomb: Ancient Legend (2021)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2525,32 +2323,32 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Chi MingHuang Yi, Wu Qiang, Lin Yongju, Wei Daming, Zhang Hengrui, Zhao Da</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Kịch tính, hồi hộp, Hành động, Hình sự,</t>
+          <t>Hành động, Viễn tưởng, Kiếm hiệp, võ thuật, Phim mới, Cổ trang,</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hàn Quốc</t>
+          <t xml:space="preserve"> Trung Quốc</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Chen Cheng</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>60 phút</t>
+          <t>76 phút</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> là bộ phim thuộc thể loại hành động, tội phạm xen lẫn những yếu tố hài hước, lãng mãn. Phim do đạo diễn nổi tiếng Kim Hee Won sản xuất cùng sự góp mặt của dàn diễn viên tài năng như Song Joong Ki, Jeon Yeo Bin, Ok Taecyeon,...</t>
+          <t xml:space="preserve"> Bốn đào kép “Sinh Đán Tịnh Sửu” do Lưu Cẩm Châu cầm đầu, vì cứu ân sư Viên Chấn mất tích mà không thể không bước vào hành trình thám mộ tìm người vô cùng nguy hiểm.</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2561,58 +2359,53 @@
       <c r="K34" t="inlineStr">
         <is>
           <t>2021</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>KeCoVanMafia-TapDacBiet</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Kẻ Cố Vấn Mafia - Tập Đặc Biệt</t>
+          <t>Chiến dịch đặc biệt: Tấn Công Đền Thờ</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Vincenzo - Special (2021)</t>
+          <t>State of Siege: Temple Attack (2021)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> 8.4</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Abhimanyu Singh, Akshaye Khanna, Gautam Rode</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Kịch tính, hồi hộp, Hành động, Hình sự,</t>
+          <t>Hành động, Phim mới,</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hàn Quốc</t>
+          <t xml:space="preserve"> Ấn Độ</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đang cập nhật</t>
+          <t xml:space="preserve"> Ken Ghosh</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>60 phút</t>
+          <t>110 phút</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> là bộ phim thuộc thể loại hành động, tội phạm xen lẫn những yếu tố hài hước, lãng mãn. Phim do đạo diễn nổi tiếng Kim Hee Won sản xuất cùng sự góp mặt của dàn diễn viên tài năng như Song Joong Ki, Jeon Yeo Bin, Ok Taecyeon,...</t>
+          <t>Lấy cảm hứng từ những sự kiện có thật, bộ phim kể lại câu chuyện anh hùng của những người lính biệt kích NSG, những người đã bước vào để cứu những người vô tội khi những kẻ khủng bố tấn công một ngôi đền ở Gujarat.</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2625,15 +2418,351 @@
           <t>2021</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>KeCoVanMafia-TapDacBiet</t>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Thợ Săn Yêu Tinh: Titan Nổi Dậy</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Trollhunters: Rise of the Titans (2021)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7.9</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kay Bess, Brian Blessed, Nick Frost</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Hành động, Hoạt hình, Phim mới, Anime,</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mỹ</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Johane Matte, Francisco Ruiz-Velasco, Andrew L. Schmidt</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>107 phút</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Các anh hùng của “Thợ săn yêu tinh”, “Bộ ba trời giáng” và “Pháp sư” bắt tay chống lại kẻ thù mờ ám đe dọa chiếm lấy thế giới của họ – và tái thiết lập cả Trái đất.</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Phim lẻ</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Nghi Lễ Đen Tối</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Dark Ritual (2021)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.4</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Natali Jones, Lisa Wilcox, Debbie Rochon</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Kinh dị, Hành động, Phim mới, Phim chiếu rạp,</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mỹ</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chris Warren</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>90 phút</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Jennifer, một phụ nữ trẻ có quá khứ đen tối, đang nỗ lực tìm kiếm người anh trai mất tích của mình. Jennifer nhanh chóng phát hiện ra rằng sự biến mất của anh trai cô là một kế hoạch… và liên quan đến một thứ không thuộc thế giới này.</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Phim lẻ</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Gintama: Hồi Kết</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Gintama: The Final (2021)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.3</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rie Kugimiya, Daisuke Sakaguchi, Hideaki Sorachi</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Hoạt hình, Phim mới, Anime,</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nhật Bản</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chizuru Miyawaki</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>103 phút</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Bối cảnh Gintama là phiên bản hư cấu của kinh thành Edo thế kỷ 19, khi Trái Đất bị các giống người ngoài hành tinh gọi chung là Amanto xâm lược. Câu chuyện xoay quanh cuộc sống thường ngày của samurai hành nghề tự do Sakata Gintoki cùng hai đàn em Shimura Shinpachi và Kagura. Ý tưởng đưa các yếu tố khoa học viễn tưởng vào manga được tác giả Sorachi nghĩ ra sau khi biên tập viên tạp chí gợi ý ông vẽ một bộ manga lịch sử.</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Phim lẻ</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Hồi Sinh Ký Ức</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Reminiscence (2021)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7.1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rebecca Ferguson, Hugh Jackman, Thandiwe Newton, Natalie Martinez, Angela Sarafyan, Cliff Curtis, Brett Cullen, Teri Wyble, Daniel Wu, Giovannie Cruz, Mojean Aria, Thomas Francis Murphy, Jules Hartley, Marina de Tavira, Sam Medina, Sue-Lynn, Renes Rivera, Tracy Brotherton</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Kinh dị, Kịch tính, hồi hộp, Tâm lý, Viễn tưởng,</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mỹ</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Lisa Joy</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>116 phút</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> xoay quanh câu chuyện về Nick - một nhà khoa học vừa khám phá ra cách để tái hiện ký ức của quá khứ. Bất cứ khách hàng có nhu cầu tìm lại ký ức có thể liên hệ Nick, thông qua việc kích thích và đánh thức vùng ký ức bị lãng quên. Để rồi một ngày nọ Nick có cuộc gặp gỡ với khách hàng cuối ngày, tưởng chừng như đây chỉ là một đơn hàng bình thường nhưng không ngờ nó lại ẩn chứa nhiều nguy hiểm chết người.</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Phim lẻ</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Cô Con Gái Tuyệt Vời</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Sweet Girl (2021)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Đang cập nhật</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jason Momoa, Isabela Merced, Manuel Garcia-Rulfo, Amy Brenneman, Adria Arjona</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Hành động, Tâm lý,</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mỹ</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brian Andrew Mendoza</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>96 phút</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Người đàn ông tận tụy của gia đình Ray Cooper (Jason Momoa), thề công bằng chống lại công ty dược phẩm chịu trách nhiệm rút một loại thuốc có khả năng cứu sống khỏi thị trường ngay trước khi vợ anh ta (Adria Arjona) chết vì ung thư. Nhưng khi cuộc tìm kiếm sự thật của anh ta dẫn đến một cuộc chạm trán chết chóc khiến Ray và con gái Rachel (Isabela Merced) của anh ta bị tổn hại, nhiệm vụ của Ray biến thành một cuộc tìm kiếm báo thù để bảo vệ gia đình duy nhất mà anh ta còn lại.</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Phim lẻ</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Vũ Trụ Tội Lỗi</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Cosmic Sin (2021)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Đang cập nhật</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brandon Thomas LeeBruce WillisCorey LargeFrank Grillo</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Hành động, Chiến tranh, Viễn tưởng,</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mỹ</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Edward Drake</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>88 phút</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Bảy người lính giả mạo tung ra một cuộc tấn công phủ đầu chống lại một nền văn minh ngoài hành tinh mới được phát hiện với hy vọng kết thúc một cuộc chiến giữa các vì sao trước khi nó bắt đầu.</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Phim lẻ</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>2021</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
